--- a/Kaggle House Prediction Parameter List.xlsx
+++ b/Kaggle House Prediction Parameter List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\PythonWork\house-price-prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1398916F-CDA3-4EEA-A1CF-6CF9F2A34E2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AEEEB0-17F5-4F35-B7C8-866FC56EE654}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -2934,7 +2934,7 @@
         <b/>
         <sz val="12"/>
         <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -2945,7 +2945,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3088,18 +3088,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3108,7 +3108,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3131,7 +3131,7 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3139,7 +3139,7 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3147,21 +3147,21 @@
     <font>
       <sz val="12"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3169,7 +3169,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3178,7 +3178,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3186,7 +3186,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3194,7 +3194,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3202,7 +3202,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3685,28 +3685,28 @@
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="38.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.796875" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="38.8984375" customWidth="1"/>
+    <col min="9" max="9" width="13.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.09765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.69921875" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>827</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>1.3703323055841001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>0.16649537512846799</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>0.93216855087358597</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="93.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>6.8516615279205198E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="31.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="46.8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="46.8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="31.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="31.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="41.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>8.2219938335046198E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="41.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="31.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>2.7749229188078098E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>2.80918122644741E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>2.80918122644741E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>2.7064063035285999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>2.7406646111682E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="46.8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="31.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="31.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>6.8516615279205198E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>6.8516615279205198E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="31.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>6.8516615279205198E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0.48646796848235602</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>5.3785542994175997E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="81" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="62.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>5.4470709146968103E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>5.4470709146968103E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="46.8">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>5.4470709146968103E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>5.4470709146968103E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="31.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="31.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>0.99657416923603903</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>0.80438506337786897</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>0.96402877697841705</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="31.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6340,21 +6340,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07E3685-DB0B-4781-AF7C-154670246DBD}">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="A356" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A389" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>30</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>40</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>45</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>60</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>75</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>80</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>85</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>90</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>120</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>150</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>160</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>180</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>190</v>
       </c>
@@ -6482,12 +6482,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>323</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>325</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>327</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>329</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>331</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>333</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>337</v>
       </c>
@@ -6551,22 +6551,22 @@
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>342</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>344</v>
       </c>
@@ -6582,17 +6582,17 @@
         <v>345</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>344</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>348</v>
       </c>
@@ -6616,12 +6616,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>868</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>867</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>865</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>866</v>
       </c>
@@ -6653,17 +6653,17 @@
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>356</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>358</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>360</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>362</v>
       </c>
@@ -6695,12 +6695,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>365</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>367</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>369</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>371</v>
       </c>
@@ -6732,12 +6732,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>374</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>376</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>378</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>380</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>382</v>
       </c>
@@ -6777,12 +6777,12 @@
         <v>383</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>385</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>387</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>389</v>
       </c>
@@ -6806,12 +6806,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>391</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>392</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>393</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>395</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>397</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>399</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>401</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>403</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>404</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>405</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>407</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>409</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>411</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>413</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>415</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>417</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>419</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>421</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>423</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>425</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>427</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>429</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>431</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>433</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>435</v>
       </c>
@@ -7011,12 +7011,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>438</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>440</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>442</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>444</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>446</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>448</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>450</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>452</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>454</v>
       </c>
@@ -7088,12 +7088,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>438</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>440</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>442</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>444</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>446</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>448</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>450</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>452</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>454</v>
       </c>
@@ -7165,12 +7165,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>458</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>460</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>462</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>464</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>466</v>
       </c>
@@ -7210,12 +7210,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>860</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>862</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>864</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>858</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>857</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>861</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>863</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>859</v>
       </c>
@@ -7279,12 +7279,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>10</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>9</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>8</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>7</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>6</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>5</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>4</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>3</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>2</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -7364,12 +7364,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>10</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>9</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>8</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>7</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>6</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>5</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>4</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>3</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>2</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -7449,22 +7449,22 @@
         <v>486</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>491</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>493</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>495</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>497</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>499</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>501</v>
       </c>
@@ -7512,12 +7512,12 @@
         <v>502</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>504</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>506</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>508</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>510</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>512</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>514</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>516</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>518</v>
       </c>
@@ -7581,12 +7581,12 @@
         <v>519</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>521</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>523</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>525</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>527</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>529</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>531</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>533</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>535</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>537</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>539</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>541</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>543</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>545</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>547</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>549</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>551</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>553</v>
       </c>
@@ -7722,12 +7722,12 @@
         <v>519</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>521</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>523</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>525</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>527</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>529</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>531</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>533</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>535</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>537</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>539</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>541</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>543</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>545</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>547</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>549</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>551</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>553</v>
       </c>
@@ -7863,12 +7863,12 @@
         <v>519</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>556</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>527</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>529</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>557</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>545</v>
       </c>
@@ -7908,17 +7908,17 @@
         <v>546</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>561</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>562</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>563</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>565</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>566</v>
       </c>
@@ -7958,12 +7958,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>561</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>562</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>563</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>565</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>566</v>
       </c>
@@ -8003,12 +8003,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>569</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>529</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>869</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>572</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>545</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>574</v>
       </c>
@@ -8056,12 +8056,12 @@
         <v>575</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>561</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>562</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>563</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>565</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>566</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>582</v>
       </c>
@@ -8109,12 +8109,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>561</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>562</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>563</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>565</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>566</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -8162,12 +8162,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>562</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>590</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>592</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>594</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>582</v>
       </c>
@@ -8207,12 +8207,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>597</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>599</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>601</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>603</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>605</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>607</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>582</v>
       </c>
@@ -8268,17 +8268,17 @@
         <v>583</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>597</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>599</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>601</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>603</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>605</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>607</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>582</v>
       </c>
@@ -8334,27 +8334,27 @@
         <v>583</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2">
       <c r="A329" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>615</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>617</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>619</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>621</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>623</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>625</v>
       </c>
@@ -8402,12 +8402,12 @@
         <v>626</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2">
       <c r="A340" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2">
       <c r="A342" t="s">
         <v>561</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2">
       <c r="A343" t="s">
         <v>562</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2">
       <c r="A344" t="s">
         <v>563</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2">
       <c r="A345" t="s">
         <v>565</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2">
       <c r="A346" t="s">
         <v>566</v>
       </c>
@@ -8447,12 +8447,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2">
       <c r="A348" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2">
       <c r="A350" t="s">
         <v>629</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2">
       <c r="A351" t="s">
         <v>631</v>
       </c>
@@ -8468,12 +8468,12 @@
         <v>632</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2">
       <c r="A353" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2">
       <c r="A355" t="s">
         <v>634</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2">
       <c r="A356" t="s">
         <v>636</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2">
       <c r="A357" t="s">
         <v>638</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2">
       <c r="A358" t="s">
         <v>640</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2">
       <c r="A359" t="s">
         <v>642</v>
       </c>
@@ -8513,67 +8513,67 @@
         <v>643</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2">
       <c r="A361" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2">
       <c r="A362" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2">
       <c r="A363" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2">
       <c r="A365" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2">
       <c r="A367" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2">
       <c r="A369" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2">
       <c r="A371" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2">
       <c r="A373" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2">
       <c r="A375" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2">
       <c r="A377" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2">
       <c r="A379" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2">
       <c r="A381" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2">
       <c r="A383" t="s">
         <v>561</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2">
       <c r="A384" t="s">
         <v>562</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2">
       <c r="A385" t="s">
         <v>563</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2">
       <c r="A386" t="s">
         <v>565</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2">
       <c r="A387" t="s">
         <v>566</v>
       </c>
@@ -8613,22 +8613,22 @@
         <v>485</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2">
       <c r="A388" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2">
       <c r="A389" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2">
       <c r="A391" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2">
       <c r="A393" t="s">
         <v>659</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2">
       <c r="A394" t="s">
         <v>661</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2">
       <c r="A395" t="s">
         <v>663</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2">
       <c r="A396" t="s">
         <v>387</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2">
       <c r="A397" t="s">
         <v>666</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2">
       <c r="A398" t="s">
         <v>668</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2">
       <c r="A399" t="s">
         <v>389</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2">
       <c r="A400" t="s">
         <v>671</v>
       </c>
@@ -8692,17 +8692,17 @@
         <v>672</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2">
       <c r="A402" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2">
       <c r="A404" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2">
       <c r="A406" t="s">
         <v>561</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2">
       <c r="A407" t="s">
         <v>562</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2">
       <c r="A408" t="s">
         <v>563</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2">
       <c r="A409" t="s">
         <v>565</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2">
       <c r="A410" t="s">
         <v>566</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2">
       <c r="A411" t="s">
         <v>582</v>
       </c>
@@ -8750,12 +8750,12 @@
         <v>679</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2">
       <c r="A413" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2">
       <c r="A415" t="s">
         <v>681</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2">
       <c r="A416" t="s">
         <v>683</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2">
       <c r="A417" t="s">
         <v>685</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2">
       <c r="A418" t="s">
         <v>687</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2">
       <c r="A419" t="s">
         <v>689</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2">
       <c r="A420" t="s">
         <v>691</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2">
       <c r="A421" t="s">
         <v>582</v>
       </c>
@@ -8811,17 +8811,17 @@
         <v>693</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2">
       <c r="A423" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2">
       <c r="A425" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2">
       <c r="A427" t="s">
         <v>695</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2">
       <c r="A428" t="s">
         <v>697</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2">
       <c r="A429" t="s">
         <v>607</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2">
       <c r="A430" t="s">
         <v>582</v>
       </c>
@@ -8853,22 +8853,22 @@
         <v>693</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2">
       <c r="A432" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2">
       <c r="A434" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2">
       <c r="A436" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2">
       <c r="A438" t="s">
         <v>561</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2">
       <c r="A439" t="s">
         <v>562</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2">
       <c r="A440" t="s">
         <v>563</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2">
       <c r="A441" t="s">
         <v>565</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2">
       <c r="A442" t="s">
         <v>566</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2">
       <c r="A443" t="s">
         <v>582</v>
       </c>
@@ -8916,12 +8916,12 @@
         <v>693</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2">
       <c r="A445" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2">
       <c r="A447" t="s">
         <v>561</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2">
       <c r="A448" t="s">
         <v>562</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2">
       <c r="A449" t="s">
         <v>563</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2">
       <c r="A450" t="s">
         <v>565</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2">
       <c r="A451" t="s">
         <v>566</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2">
       <c r="A452" t="s">
         <v>582</v>
       </c>
@@ -8969,12 +8969,12 @@
         <v>693</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2">
       <c r="A454" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2">
       <c r="A456" t="s">
         <v>631</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2">
       <c r="A457" t="s">
         <v>706</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2">
       <c r="A458" t="s">
         <v>629</v>
       </c>
@@ -8998,43 +8998,43 @@
         <v>708</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2">
       <c r="A460" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2">
       <c r="A462" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2">
       <c r="A464" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8">
       <c r="A466" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8">
       <c r="A468" t="s">
         <v>713</v>
       </c>
       <c r="H468" s="26"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8">
       <c r="A470" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8">
       <c r="A472" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8">
       <c r="A474" t="s">
         <v>561</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8">
       <c r="A475" t="s">
         <v>562</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8">
       <c r="A476" t="s">
         <v>563</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8">
       <c r="A477" t="s">
         <v>565</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8">
       <c r="A478" t="s">
         <v>582</v>
       </c>
@@ -9074,12 +9074,12 @@
         <v>716</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8">
       <c r="A480" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2">
       <c r="A482" t="s">
         <v>718</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2">
       <c r="A483" t="s">
         <v>720</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2">
       <c r="A484" t="s">
         <v>722</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2">
       <c r="A485" t="s">
         <v>724</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2">
       <c r="A486" t="s">
         <v>582</v>
       </c>
@@ -9119,12 +9119,12 @@
         <v>726</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2">
       <c r="A488" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2">
       <c r="A490" t="s">
         <v>728</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2">
       <c r="A491" t="s">
         <v>730</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2">
       <c r="A492" t="s">
         <v>732</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2">
       <c r="A493" t="s">
         <v>501</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2">
       <c r="A494" t="s">
         <v>734</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2">
       <c r="A495" t="s">
         <v>582</v>
       </c>
@@ -9172,27 +9172,27 @@
         <v>558</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2">
       <c r="A497" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2">
       <c r="A499" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2">
       <c r="A501" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2">
       <c r="A503" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2">
       <c r="A505" t="s">
         <v>740</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2">
       <c r="A506" t="s">
         <v>742</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2">
       <c r="A507" t="s">
         <v>744</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2">
       <c r="A508" t="s">
         <v>746</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2">
       <c r="A509" t="s">
         <v>748</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2">
       <c r="A510" t="s">
         <v>750</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2">
       <c r="A511" t="s">
         <v>752</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2">
       <c r="A512" t="s">
         <v>754</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2">
       <c r="A513" t="s">
         <v>756</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2">
       <c r="A514" t="s">
         <v>758</v>
       </c>
@@ -9272,12 +9272,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2">
       <c r="A516" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2">
       <c r="A518" t="s">
         <v>760</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2">
       <c r="A519" t="s">
         <v>762</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2">
       <c r="A520" t="s">
         <v>764</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2">
       <c r="A521" t="s">
         <v>766</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2">
       <c r="A522" t="s">
         <v>768</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2">
       <c r="A523" t="s">
         <v>770</v>
       </c>
@@ -9340,14 +9340,14 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>304</v>
       </c>
@@ -9366,12 +9366,12 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>775</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>777</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>778</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>779</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>0.93216855087358597</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>780</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>781</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>278</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>2.80918122644741E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>277</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>2.80918122644741E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>296</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>295</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>281</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>2.7064063035285999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>2.7406646111682E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>6.8516615279205198E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>6.8516615279205198E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>279</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>2.7749229188078098E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>290</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>782</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>783</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>784</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>289</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>785</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>786</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>787</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>291</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>292</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>269</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0.80438506337786897</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>270</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0.48646796848235602</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>788</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>789</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>790</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>288</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>6.8516615279205198E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>299</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>273</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>5.4470709146968103E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>5.4470709146968103E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>272</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>5.4470709146968103E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>5.3785542994175997E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>275</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>5.4470709146968103E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>791</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>792</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>793</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>794</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>795</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>796</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>797</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>297</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>798</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>799</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>800</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>801</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>271</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>0.16649537512846799</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>802</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>803</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>804</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>284</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>1.3703323055841001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>283</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>7.8794107571085997E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>282</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>8.2219938335046198E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>267</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>0.96402877697841705</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>805</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>806</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>807</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>808</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>809</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>810</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>811</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>812</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>266</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>0.99657416923603903</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>813</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>814</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>815</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>298</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>816</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>817</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>818</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>293</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>3.4258307639602599E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>287</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>6.8516615279205198E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>819</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>820</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>821</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>822</v>
       </c>
